--- a/AAII_Financials/Quarterly/ADAG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADAG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>ADAG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,22 +708,25 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -737,8 +740,11 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +772,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +804,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,23 +820,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="3">
         <v>23600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11500</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +850,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +882,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +914,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +946,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,23 +959,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E17" s="3">
         <v>31000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13800</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,23 +989,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-30700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1021,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,23 +1037,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,23 +1067,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-28900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,8 +1099,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1072,14 +1111,14 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,23 +1131,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11800</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1163,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1195,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,23 +1227,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-29600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11800</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,23 +1259,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1291,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1323,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1355,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1387,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,23 +1419,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,23 +1451,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1483,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,23 +1515,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,28 +1547,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1584,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1600,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,17 +1614,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E41" s="3">
         <v>82900</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1644,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,17 +1676,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1708,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,17 +1740,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,17 +1772,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E46" s="3">
         <v>86600</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,8 +1804,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,17 +1836,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +1868,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +1900,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1932,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,17 +1964,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1996,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,17 +2028,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E54" s="3">
         <v>89100</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2060,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2076,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,17 +2090,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,17 +2120,20 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,17 +2152,20 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E59" s="3">
         <v>6100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,17 +2184,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E60" s="3">
         <v>10400</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,17 +2216,20 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2106,16 +2248,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2280,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2312,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2344,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,17 +2376,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E66" s="3">
         <v>13600</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2408,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2424,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2454,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2486,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2331,7 +2498,7 @@
         <v>154400</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>154400</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2351,8 +2518,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,17 +2550,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-105700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-92900</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2582,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2614,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2646,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,17 +2678,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-78900</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2710,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,28 +2742,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,23 +2779,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2811,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,23 +2827,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2659,8 +2857,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2889,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2921,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2953,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2985,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,23 +3017,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11800</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3049,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,22 +3065,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2875,8 +3095,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3127,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,23 +3159,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>7400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>18900</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3191,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3207,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3237,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3269,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3301,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,23 +3333,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>3100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>53400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>16300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3365,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3129,14 +3377,14 @@
         <v>-200</v>
       </c>
       <c r="E101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3149,23 +3397,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>52900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>23600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3427,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADAG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADAG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
   <si>
     <t>ADAG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,41 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,25 +712,28 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -743,8 +747,11 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -775,8 +782,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,8 +817,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -821,26 +834,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E12" s="3">
         <v>10000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11500</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -853,8 +867,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,8 +902,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -917,8 +937,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -949,8 +972,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -960,26 +986,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E17" s="3">
         <v>12800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13800</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,26 +1019,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-30700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1054,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1038,26 +1071,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1070,26 +1104,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-28900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-4400</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H21" s="3">
         <v>-11100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1102,26 +1139,29 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1134,26 +1174,29 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11800</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1166,8 +1209,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1198,8 +1244,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1230,26 +1279,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11800</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,26 +1314,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,8 +1349,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1326,8 +1384,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,8 +1419,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1390,8 +1454,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,26 +1489,29 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1454,26 +1524,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1486,8 +1559,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1518,26 +1594,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1550,31 +1629,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1587,8 +1669,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1601,8 +1686,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1615,20 +1701,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>208300</v>
+      </c>
+      <c r="E41" s="3">
         <v>75200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>82900</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,8 +1734,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1679,20 +1769,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1711,8 +1804,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1743,20 +1839,23 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1775,20 +1874,23 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>215200</v>
+      </c>
+      <c r="E46" s="3">
         <v>79100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>86600</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1807,8 +1909,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1839,20 +1944,23 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1871,8 +1979,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1903,8 +2014,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1935,8 +2049,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1967,20 +2084,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,8 +2119,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2031,20 +2154,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E54" s="3">
         <v>84300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>89100</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2063,8 +2189,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2077,8 +2206,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2091,20 +2221,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,20 +2254,23 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E58" s="3">
         <v>5000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2155,20 +2289,23 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E59" s="3">
         <v>9300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,20 +2324,23 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E60" s="3">
         <v>16100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2219,20 +2359,23 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2251,8 +2394,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2262,8 +2408,8 @@
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2283,8 +2429,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2315,8 +2464,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2347,8 +2499,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2379,20 +2534,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E66" s="3">
         <v>19200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13600</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2569,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2425,8 +2586,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2457,8 +2619,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2489,19 +2654,22 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>154400</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>154400</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>154400</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2521,8 +2689,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2553,20 +2724,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-105700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-92900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2759,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2617,8 +2794,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2649,8 +2829,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2681,20 +2864,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>186200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-89400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-78900</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2713,8 +2899,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2745,31 +2934,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2782,26 +2974,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2814,8 +3009,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2828,22 +3026,23 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2860,8 +3059,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2892,8 +3094,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2924,8 +3129,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2956,8 +3164,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2988,8 +3199,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3020,22 +3234,25 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-6400</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-11800</v>
+        <v>-18200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3052,8 +3269,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3066,22 +3286,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3098,8 +3319,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3130,8 +3354,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3162,22 +3389,25 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="E94" s="3">
-        <v>7400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>5900</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>18900</v>
+        <v>24900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3194,8 +3424,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3208,8 +3441,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3240,8 +3474,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3272,8 +3509,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3304,8 +3544,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3336,22 +3579,25 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>1300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>53400</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>16300</v>
+        <v>69700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3368,22 +3614,25 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3400,22 +3649,25 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="F102" s="3">
-        <v>52900</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>23600</v>
+        <v>76500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3430,6 +3682,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADAG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADAG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>ADAG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,45 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,28 +716,31 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -750,8 +754,11 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -785,8 +792,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,8 +830,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,29 +848,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E12" s="3">
         <v>31500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11500</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -870,8 +884,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,8 +922,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,8 +960,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -975,8 +998,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -987,29 +1013,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E17" s="3">
         <v>38900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13800</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1022,29 +1049,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-30700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13800</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1087,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,29 +1105,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1141,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1118,18 +1155,18 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="3">
+        <v>-11800</v>
       </c>
       <c r="G21" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="H21" s="3">
         <v>-3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1142,8 +1179,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1151,20 +1191,20 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1177,29 +1217,32 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11800</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1212,13 +1255,16 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1235,8 +1281,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1247,8 +1293,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1282,29 +1331,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-29600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11800</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,29 +1369,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1407,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1387,8 +1445,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1422,8 +1483,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1457,8 +1521,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1492,29 +1559,32 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,29 +1597,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,8 +1635,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1597,29 +1673,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1632,34 +1711,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1754,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1687,8 +1772,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1702,23 +1788,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>174400</v>
+      </c>
+      <c r="E41" s="3">
         <v>208300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>75200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>82900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,8 +1824,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1772,23 +1862,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1807,8 +1900,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1842,23 +1938,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
         <v>5400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,23 +1976,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E46" s="3">
         <v>215200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>79100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>86600</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,8 +2014,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1947,23 +2052,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,8 +2090,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2017,8 +2128,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2052,8 +2166,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2087,8 +2204,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2096,14 +2216,14 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2242,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2157,23 +2280,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>189500</v>
+      </c>
+      <c r="E54" s="3">
         <v>217900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>84300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>89100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2318,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2207,8 +2336,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2222,23 +2352,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,23 +2388,26 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E58" s="3">
         <v>5700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2292,23 +2426,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E59" s="3">
         <v>21100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2327,23 +2464,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E60" s="3">
         <v>29600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,23 +2502,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2397,8 +2540,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2411,8 +2557,8 @@
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2432,8 +2578,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2467,8 +2616,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2502,8 +2654,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2537,23 +2692,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E66" s="3">
         <v>31600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2572,8 +2730,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2587,8 +2748,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2622,8 +2784,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2657,8 +2822,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2666,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>154400</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>154400</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>154400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2692,8 +2860,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2727,23 +2898,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-178800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-142800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-105700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-92900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,8 +2936,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2797,8 +2974,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2832,8 +3012,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2867,23 +3050,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>156600</v>
+      </c>
+      <c r="E76" s="3">
         <v>186200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-89400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-78900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2902,8 +3088,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2937,34 +3126,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2977,29 +3169,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3012,8 +3207,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3027,8 +3225,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3038,11 +3237,11 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>900</v>
       </c>
       <c r="G83" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3062,8 +3261,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3097,8 +3299,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3132,8 +3337,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3167,8 +3375,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3202,8 +3413,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3237,8 +3451,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3248,11 +3465,11 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="F89" s="3">
+        <v>-28500</v>
       </c>
       <c r="G89" s="3">
-        <v>-18200</v>
+        <v>-20000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3272,8 +3489,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3287,8 +3507,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3298,11 +3519,11 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>-900</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3322,8 +3543,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3357,8 +3581,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3392,8 +3619,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3403,11 +3633,11 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>7100</v>
       </c>
       <c r="G94" s="3">
-        <v>24900</v>
+        <v>7400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3427,8 +3657,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3442,8 +3675,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3477,8 +3711,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3512,8 +3749,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3547,8 +3787,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3582,8 +3825,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3593,11 +3839,11 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="F100" s="3">
+        <v>4400</v>
       </c>
       <c r="G100" s="3">
-        <v>69700</v>
+        <v>3100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3617,8 +3863,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3628,11 +3877,11 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>-400</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3652,8 +3901,11 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3663,11 +3915,11 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="F102" s="3">
+        <v>-17400</v>
       </c>
       <c r="G102" s="3">
-        <v>76500</v>
+        <v>-9600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3685,6 +3937,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADAG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADAG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="92">
   <si>
     <t>ADAG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,48 +665,49 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,31 +720,34 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E8" s="3">
         <v>8800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -757,8 +761,11 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,8 +802,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,8 +843,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,32 +862,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E12" s="3">
         <v>36600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>31500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11500</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +901,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,8 +942,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,8 +983,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1024,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1014,32 +1040,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E17" s="3">
         <v>43700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13800</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,32 +1079,35 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-34900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-30700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1090,8 +1120,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,32 +1139,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,8 +1178,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1155,21 +1192,21 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-11800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-28900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,8 +1219,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1194,20 +1234,20 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,32 +1260,35 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-29600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11800</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,17 +1301,20 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1281,11 +1327,11 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1296,8 +1342,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1334,32 +1383,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-37200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-29600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11800</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1372,32 +1424,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-37200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-29800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1410,8 +1465,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,8 +1506,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,8 +1547,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1588,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1562,32 +1629,35 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1600,32 +1670,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-37200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-29800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1638,8 +1711,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1676,32 +1752,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-37200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-29800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,37 +1793,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1757,8 +1839,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1773,8 +1858,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1789,26 +1875,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E41" s="3">
         <v>174400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>208300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>75200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>82900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1827,8 +1914,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1865,26 +1955,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>7500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1903,8 +1996,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1941,26 +2037,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1979,26 +2078,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E46" s="3">
         <v>186000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>215200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>79100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>86600</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2119,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2055,8 +2160,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2064,17 +2172,17 @@
         <v>3500</v>
       </c>
       <c r="E48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,8 +2201,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2131,8 +2242,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2169,8 +2283,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,8 +2324,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2219,14 +2339,14 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,8 +2365,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2283,26 +2406,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>178600</v>
+      </c>
+      <c r="E54" s="3">
         <v>189500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>217900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>84300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>89100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2447,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2337,8 +2466,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2353,26 +2483,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,26 +2522,29 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E58" s="3">
         <v>4500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,26 +2563,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E59" s="3">
         <v>22000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2467,26 +2604,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E60" s="3">
         <v>29800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2505,26 +2645,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2543,13 +2686,16 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2560,8 +2706,8 @@
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2581,8 +2727,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +2768,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2657,8 +2809,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2695,26 +2850,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E66" s="3">
         <v>33000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2891,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2749,8 +2910,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2787,8 +2949,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2825,8 +2990,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2837,13 +3005,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>154400</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>154400</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>154400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2863,8 +3031,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2901,26 +3072,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-226500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-178800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-142800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-105700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-92900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2939,8 +3113,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2977,8 +3154,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3015,8 +3195,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3053,26 +3236,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>112700</v>
+      </c>
+      <c r="E76" s="3">
         <v>156600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>186200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-89400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-78900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3091,8 +3277,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,37 +3318,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3172,32 +3364,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-37200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-29800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,8 +3405,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3226,8 +3424,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3237,12 +3436,12 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
-        <v>600</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3264,8 +3463,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3302,8 +3504,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3340,8 +3545,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3378,8 +3586,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3416,8 +3627,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3454,8 +3668,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3465,12 +3682,12 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3">
         <v>-28500</v>
       </c>
-      <c r="G89" s="3">
-        <v>-20000</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3492,8 +3709,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3508,8 +3728,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3519,12 +3740,12 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
-        <v>-600</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3546,8 +3767,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3584,8 +3808,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3622,8 +3849,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3633,12 +3863,12 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
         <v>7100</v>
       </c>
-      <c r="G94" s="3">
-        <v>7400</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3890,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3676,8 +3909,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3714,8 +3948,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3752,8 +3989,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3790,8 +4030,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3828,8 +4071,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3839,12 +4085,12 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>4400</v>
       </c>
-      <c r="G100" s="3">
-        <v>3100</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,8 +4112,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3877,12 +4126,12 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
-        <v>-200</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3904,8 +4153,11 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3915,12 +4167,12 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3">
         <v>-17400</v>
       </c>
-      <c r="G102" s="3">
-        <v>-9600</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3940,6 +4192,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADAG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADAG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>ADAG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,52 +665,53 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,34 +724,37 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
@@ -764,8 +768,11 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,8 +812,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,8 +856,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,35 +876,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E12" s="3">
         <v>45100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>36600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>31500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11500</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,8 +918,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,8 +962,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,8 +1006,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1050,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,35 +1067,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E17" s="3">
         <v>52000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1082,35 +1109,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-48100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-34900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-30700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1153,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,35 +1173,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1181,8 +1215,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,21 +1232,21 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-11800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-28900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,13 +1259,16 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1237,20 +1277,20 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,35 +1303,38 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-47100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-34300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-37200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-29600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,20 +1347,23 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1330,11 +1376,11 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1345,8 +1391,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,35 +1435,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-47600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-37200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-29600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1427,35 +1479,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-47600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-37200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-29800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1468,8 +1523,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1567,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,8 +1611,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1655,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,35 +1699,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1673,35 +1743,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-47600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-37200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-29800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +1787,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,35 +1831,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-47600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-37200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-29800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1796,40 +1875,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1842,8 +1924,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +1944,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,29 +1962,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>143800</v>
+      </c>
+      <c r="E41" s="3">
         <v>168000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>174400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>208300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>75200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>82900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2004,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1958,29 +2048,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,8 +2092,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2040,29 +2136,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,29 +2180,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>149300</v>
+      </c>
+      <c r="E46" s="3">
         <v>175000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>186000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>215200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>79100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>86600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2224,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2163,29 +2268,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="E48" s="3">
         <v>3500</v>
       </c>
       <c r="F48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,8 +2312,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2245,8 +2356,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2400,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,8 +2444,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2342,14 +2462,14 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2488,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,29 +2532,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>152400</v>
+      </c>
+      <c r="E54" s="3">
         <v>178600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>189500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>217900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>84300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>89100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2576,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2596,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,29 +2614,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,29 +2656,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E58" s="3">
         <v>7300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,29 +2700,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E59" s="3">
         <v>44500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,29 +2744,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E60" s="3">
         <v>56500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,29 +2788,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E61" s="3">
         <v>9300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2689,16 +2832,19 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -2709,8 +2855,8 @@
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2730,8 +2876,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +2920,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +2964,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,29 +3008,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E66" s="3">
         <v>65900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,8 +3052,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3072,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3114,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3158,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3008,13 +3176,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>154400</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>154400</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>154400</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3034,8 +3202,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,29 +3246,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-258800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-226500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-178800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-142800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-105700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-92900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3290,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3334,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3378,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,29 +3422,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E76" s="3">
         <v>112700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>156600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>186200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-89400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-78900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3280,8 +3466,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,40 +3510,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3367,35 +3559,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-47600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-37200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-29800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,8 +3603,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,31 +3623,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3466,8 +3665,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3709,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3753,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +3797,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +3841,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,31 +3885,34 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3712,8 +3929,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,31 +3949,32 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3770,8 +3991,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4035,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,31 +4079,34 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>7100</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3893,8 +4123,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,8 +4143,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3951,8 +4185,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4229,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4273,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,31 +4317,34 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4115,31 +4361,34 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -4156,31 +4405,34 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -4195,6 +4447,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
